--- a/01_command_base/MacOS基础命令.xlsx
+++ b/01_command_base/MacOS基础命令.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzhi/github/macos_command/01_command_base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzhi/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="440" windowWidth="30140" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="5480" yWindow="1800" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="入门命令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
   <si>
     <t>cd ~</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,7 +615,775 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将目录hello复制到上一级目录下 注意-r的使用</t>
+    <t>ln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln -s /Applications/QQ.app ~/Desktop/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给QQ建立软链接文件到桌面（相当于windows下的发送QQ的快捷方式到桌面）</t>
+    <rPh sb="0" eb="1">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ruan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lian j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhuo m</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xiang dang yu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>de</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>kuai j</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>fang shi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zhuo m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看ls命令的手册 (按空格翻页 按Q退出)</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ming l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou ce</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>an</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kong ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fan ye</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>an</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tui chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man touch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查看ls命令的手册 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示目录下的文件 list directory</t>
+    <rPh sb="0" eb="1">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示当前所在目录 print working directory</t>
+    <rPh sb="0" eb="1">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo zai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mu l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换目录 change directory</t>
+    <rPh sb="0" eb="1">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建目录（新建文件夹）make directories</t>
+    <rPh sb="0" eb="1">
+      <t>xin j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen j j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动文件或目录（剪切）move</t>
+    <rPh sb="0" eb="1">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mu lu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制文件或目录 copy</t>
+    <rPh sb="0" eb="1">
+      <t>fu zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mu lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给文件或者目录建立链接 links</t>
+    <rPh sb="0" eb="1">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mu lu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jian li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lian jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看命令手册 manual</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">echo </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir -p hello/kitty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建一个hello，同时在hello目录里再新建一个kitty目录 -p代表递归建立目录</t>
+    <rPh sb="0" eb="1">
+      <t>xin jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tong shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>mu lu li</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xin j</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>mu lu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>dai biao</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>di gui</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>jian li</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>mu l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出命令</t>
+    <rPh sb="0" eb="1">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出字符串ls</t>
+    <rPh sb="0" eb="1">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi fu c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo `ls`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出ls命令执行结果</t>
+    <rPh sb="0" eb="1">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ming l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo 'ls'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo $(ls)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出ls命令执行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示当前目录</t>
+    <rPh sb="0" eb="1">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mu lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <rPh sb="0" eb="1">
+      <t>ming l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例</t>
+    <rPh sb="0" eb="1">
+      <t>ju li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <rPh sb="0" eb="1">
+      <t>shuo m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来新建文件（touch的作用是修改文件时间，如果文件不存在，则创建文件）</t>
+    <rPh sb="0" eb="1">
+      <t>yong lai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>we j</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zuo y</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi j</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ru guo</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bu cun z</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>chuang j</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>wen j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪微博</t>
+    <rPh sb="0" eb="1">
+      <t>xin lang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>删除文件或者目录 remove (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新手运行删除命令请格外小心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mu l</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xin shou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>min l</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>qin</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ge wai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xiao x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行shell脚本</t>
+    <rPh sb="0" eb="1">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh a.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chomd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文件权限 change file modes or Access Control Lists</t>
+    <rPh sb="0" eb="1">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>quan x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chomd 755 a.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给a.sh文件赋予执行权限</t>
+    <rPh sb="0" eb="1">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu yu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi x</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>quan x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行脚本文件a.sh （前提是当前目录下存在a.sh文件，并且文件有可执行权限）</t>
+    <rPh sb="0" eb="1">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qian ti</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dang q</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mu lu x</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>cun z</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>bin q</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>you</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhi x</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>quan x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo -e "hello\n"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出hello并换行 -e代表支持输出控制字符 包括\a警告音 \n换行  \t制表符 等</t>
+    <rPh sb="0" eb="1">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huan h</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi chi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>kong z</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zi fu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bao k</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>jing gao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>huan h</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>zhi biao f</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>查找命令</t>
+  </si>
+  <si>
+    <t>find ~/Downloads/ -name a*</t>
+  </si>
+  <si>
+    <t>查找下载目录下的所有a开头的文件和目录</t>
+  </si>
+  <si>
+    <t>find ~/Desktop/ -name a.txt</t>
+  </si>
+  <si>
+    <t>查找桌面名字叫做a.txt的文件</t>
+  </si>
+  <si>
+    <t>find ~/Desktop/*</t>
+  </si>
+  <si>
+    <t>查找桌面所有文件和目录</t>
+  </si>
+  <si>
+    <t>find . -name *.txt</t>
+  </si>
+  <si>
+    <t>查找当前目录下的txt结尾的文件</t>
+  </si>
+  <si>
+    <t>find . -atime -1</t>
+  </si>
+  <si>
+    <t>查找当前目录下1天内被访问过的文件</t>
+  </si>
+  <si>
+    <t>find . -atime +2</t>
+  </si>
+  <si>
+    <t>查找当前目录下2天前被访问过的文件</t>
+  </si>
+  <si>
+    <t>find . -mtime -2</t>
+  </si>
+  <si>
+    <t>搜索当前目录2天内被修改过的文件</t>
+  </si>
+  <si>
+    <t>find . -ctime -2</t>
+  </si>
+  <si>
+    <t>搜索当前目录2天内文件属性被修改的文件</t>
+  </si>
+  <si>
+    <t>find . -size -64k</t>
+  </si>
+  <si>
+    <t>查找当前目录小于64k的文件</t>
+  </si>
+  <si>
+    <t>find . -size +1k -a -size -2k</t>
+  </si>
+  <si>
+    <t>查找当前目录大于1k并且小于2k的文件</t>
+  </si>
+  <si>
+    <t>find . -perm 755</t>
+  </si>
+  <si>
+    <t>查找当前目录有执行权限的文件</t>
+  </si>
+  <si>
+    <t>find . -size +2k -a -size -50k -exec ls -lh {} \;</t>
+  </si>
+  <si>
+    <t>查询到的文件用ls -lh显示</t>
+  </si>
+  <si>
+    <t>查询i节点文件为262541的文件 直接删除</t>
+  </si>
+  <si>
+    <t>whereis</t>
+  </si>
+  <si>
+    <t>查找命令所在目录</t>
+  </si>
+  <si>
+    <t>whereis ls</t>
+  </si>
+  <si>
+    <t>查找ls命令所在目录</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>查找命令所在目录 可以看别名</t>
+  </si>
+  <si>
+    <t>which cd</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>find . -inum 234533 -exec rm -rf {} \;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将目录hello复制到上一级目录下 注意-r的使用 -r代表复制的对象为目录</t>
     <rPh sb="0" eb="1">
       <t>jiang</t>
     </rPh>
@@ -646,489 +1414,635 @@
     <rPh sb="23" eb="24">
       <t>shi yong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ln</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ln -s /Applications/QQ.app ~/Desktop/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给QQ建立软链接文件到桌面（相当于windows下的发送QQ的快捷方式到桌面）</t>
+    <rPh sb="28" eb="29">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fu zhi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>dui x</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>mu lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串搜索命令 将显示字符串匹配的所在行所有内容</t>
+    <rPh sb="8" eb="9">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi fu c</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pi pei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>suo zai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>nei r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grep "hello" a.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grep -v "hello" a.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>搜索a.txt文件中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串"hello"的所有行</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>sou suo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi fu c</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>搜索a.txt文件中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串"hello"的所有行</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grep -n "hello" a.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索a.txt文件中包含字符串"hello"的所有行 并显示行号</t>
+    <rPh sb="0" eb="1">
+      <t>sou suo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi fu c</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hang</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bin</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>hang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看当前用户登录信息及相关系统信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看当前用户登录信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史登录信息</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给命令起别名（临时生效，如果需要持久生效，需要把命令写在用户配置文件中）</t>
     <rPh sb="0" eb="1">
       <t>gei</t>
     </rPh>
+    <rPh sb="1" eb="2">
+      <t>ming l</t>
+    </rPh>
     <rPh sb="3" eb="4">
-      <t>jian li</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ruan</t>
+      <t>qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bie ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shen xiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ru guo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi jiu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shen x</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ming ling</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xie zai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>pei zhi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias ll="ls -l"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用ll代替ls -l命令</t>
+    <rPh sb="0" eb="1">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dai t</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ming l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias grep="grep --color=auto"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用为grep使用时 直接附带参数--color=auto 即匹配内容用颜色标记出</t>
+    <rPh sb="0" eb="1">
+      <t>zuo yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi j</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fu dai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>can s</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>pi pei</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>nei r</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>yan se</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>biao ji</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史输入命令</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu ru</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>lian j</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wen j</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhuo m</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xiang dang yu</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>de</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>fa song</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>de</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>kuai j</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>fang shi</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>zhuo m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>man</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>man ls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看ls命令的手册 (按空格翻页 按Q退出)</t>
-    <rPh sb="0" eb="1">
-      <t>cha kan</t>
+      <t>ming l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history -c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空历史命令</t>
+    <rPh sb="0" eb="1">
+      <t>qin kong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li shi</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>ming l</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netstat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netstat -an</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看网络连接及网络接口信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看网络信息</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道</t>
+    <rPh sb="0" eb="1">
+      <t>guan dao f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">命令结果的传递 用竖线 | 分隔命令 </t>
+    <rPh sb="0" eb="1">
+      <t>ming l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu xian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>feng ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ming l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令1 | 命令2</t>
+    <rPh sb="0" eb="1">
+      <t>ming l</t>
+    </rPh>
     <rPh sb="6" eb="7">
+      <t>ming l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令1正确执行的结果 作为命令2的操作对象</t>
+    <rPh sb="0" eb="1">
+      <t>ming l</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>de</t>
     </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ming l</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cao zuo</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dui x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head -n 4 a.txt | grep "hello"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出a.txt文件前4行的内容，然后在结果中找出所有包含hello的行</t>
+    <rPh sb="0" eb="1">
+      <t>shu chu</t>
+    </rPh>
     <rPh sb="7" eb="8">
-      <t>shou ce</t>
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qian</t>
     </rPh>
     <rPh sb="11" eb="12">
-      <t>an</t>
+      <t>hang</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>kong ge</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>fan ye</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>an</t>
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nei r</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ran hou</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zai</t>
     </rPh>
     <rPh sb="19" eb="20">
-      <t>tui chu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>man touch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查看ls命令的手册 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示目录下的文件 list directory</t>
-    <rPh sb="0" eb="1">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mu lu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="5" eb="6">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhao chu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="33" eb="34">
       <t>de</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>wen j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示当前所在目录 print working directory</t>
-    <rPh sb="0" eb="1">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dang q</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>suo zai</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mu l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换目录 change directory</t>
-    <rPh sb="0" eb="1">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mu lu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建目录（新建文件夹）make directories</t>
-    <rPh sb="0" eb="1">
-      <t>xin j</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mu l</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xin jian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wen j j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动文件或目录（剪切）move</t>
-    <rPh sb="0" eb="1">
-      <t>yi dong</t>
+    <rPh sb="34" eb="35">
+      <t>hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出文件内容</t>
+    <rPh sb="0" eb="1">
+      <t>shu chu</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>wen j</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>huo</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>mu lu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jian q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制文件或目录 copy</t>
-    <rPh sb="0" eb="1">
-      <t>fu zhi</t>
-    </rPh>
+      <t>nei r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat  a.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat  -b a.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示文件a.txt的所有内容</t>
     <rPh sb="2" eb="3">
       <t>wen j</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>huo zhe</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>mu lu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除文件或者目录 remove</t>
-    <rPh sb="0" eb="1">
-      <t>shan chu</t>
-    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nei r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示文件a.txt的所有内容 并显示行号</t>
     <rPh sb="2" eb="3">
       <t>wen j</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>huo zhe</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mu l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给文件或者目录建立链接 links</t>
-    <rPh sb="0" eb="1">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
+    <rPh sb="15" eb="16">
+      <t>bin</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>hang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head -n 5 a.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示文件</t>
+    <rPh sb="0" eb="1">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>wen j</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>huo zhe</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>mu lu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jian li</t>
-    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示文件a.txt的前5行</t>
     <rPh sb="9" eb="10">
-      <t>lian jie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看命令手册 manual</t>
-    <rPh sb="0" eb="1">
-      <t>cha kan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming l</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shou ce</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">echo </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mkdir -p hello/kitty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建一个hello，同时在hello目录里再新建一个kitty目录 -p代表递归建立目录</t>
-    <rPh sb="0" eb="1">
-      <t>xin jian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi ge</t>
+      <t>de</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>tong shi</t>
+      <t>qian</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>mu lu li</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>xin j</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>yi ge</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>mu lu</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>dai biao</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>di gui</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>jian li</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>mu l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出命令</t>
-    <rPh sb="0" eb="1">
-      <t>shu chu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出字符串ls</t>
-    <rPh sb="0" eb="1">
-      <t>shu chu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi fu c</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>echo `ls`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出ls命令执行结果</t>
-    <rPh sb="0" eb="1">
-      <t>shu chu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ming l</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhi x</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jie guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>echo 'ls'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>echo $(ls)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出ls命令执行结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示当前目录</t>
-    <rPh sb="0" eb="1">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dang q</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mu lu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令</t>
-    <rPh sb="0" eb="1">
-      <t>ming l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举例</t>
-    <rPh sb="0" eb="1">
-      <t>ju li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <rPh sb="0" eb="1">
-      <t>shuo m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一课 基础命令入门</t>
-    <rPh sb="0" eb="1">
-      <t>di yi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ke c</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ji chu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ming l</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ru m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程视频(优酷)</t>
-  </si>
-  <si>
-    <t>用来新建文件（touch的作用是修改文件时间，如果文件不存在，则创建文件）</t>
-    <rPh sb="0" eb="1">
-      <t>yong lai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin jian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>we j</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>de</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zuo y</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>xiu g</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>wen j</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>shi j</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ru guo</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>wen j</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>bu cun z</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ze</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>chuang j</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>wen j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新浪微博</t>
-    <rPh sb="0" eb="1">
-      <t>xin lang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei b</t>
+      <t>hang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1137,7 +2051,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1191,39 +2105,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="18"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1233,12 +2136,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,59 +2174,55 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1338,38 +2231,64 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1388,13 +2307,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2601538</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114149</xdr:rowOff>
+      <xdr:rowOff>190349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1411,7 +2330,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11709400" y="977900"/>
+          <a:off x="11709400" y="825500"/>
           <a:ext cx="2538038" cy="3733649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1687,479 +2606,910 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="95.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
+      <c r="B54" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="C56" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A59" s="26"/>
+      <c r="B59" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="26"/>
+      <c r="B60" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A61" s="26"/>
+      <c r="B61" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="26"/>
+      <c r="B62" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A63" s="26"/>
+      <c r="B63" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="26"/>
+      <c r="B64" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A65" s="26"/>
+      <c r="B65" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A66" s="26"/>
+      <c r="B66" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A67" s="26"/>
+      <c r="B67" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="26"/>
+      <c r="B68" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A69" s="26"/>
+      <c r="B69" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="27"/>
+      <c r="B70" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A74" s="21"/>
+      <c r="B74" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A75" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+      <c r="B77" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A78" s="16"/>
+      <c r="B78" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
+      <c r="B83" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A86" s="17"/>
+      <c r="B86" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A88" s="17"/>
+      <c r="B88" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
+      <c r="B90" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A91" s="16"/>
+      <c r="B91" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+    </row>
+    <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+    </row>
+    <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+    </row>
+    <row r="95" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+    </row>
+    <row r="96" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="16">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A58:A70"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="D3:D17"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A44:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/01_command_base/MacOS基础命令.xlsx
+++ b/01_command_base/MacOS基础命令.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzhi/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzhi/github/macos_command/01_command_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1138,10 +1138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chomd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改文件权限 change file modes or Access Control Lists</t>
     <rPh sb="0" eb="1">
       <t>xiu g</t>
@@ -1152,10 +1148,6 @@
     <rPh sb="4" eb="5">
       <t>quan x</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chomd 755 a.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2044,6 +2036,14 @@
     <rPh sb="12" eb="13">
       <t>hang</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chmod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chmod 755 a.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2238,25 +2238,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2277,6 +2262,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2285,6 +2276,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2609,13 +2609,13 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="95.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="7"/>
@@ -2646,157 +2646,157 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="6" t="s">
         <v>72</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B19" s="7"/>
@@ -2816,7 +2816,7 @@
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
@@ -2825,7 +2825,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="6" t="s">
         <v>33</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="7"/>
@@ -2843,7 +2843,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
@@ -2852,7 +2852,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
@@ -2861,7 +2861,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
@@ -2870,7 +2870,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2879,7 +2879,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="7"/>
@@ -2888,7 +2888,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="6" t="s">
         <v>39</v>
       </c>
@@ -2897,7 +2897,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="6" t="s">
         <v>40</v>
       </c>
@@ -2906,7 +2906,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="6" t="s">
         <v>43</v>
       </c>
@@ -2915,7 +2915,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="7"/>
@@ -2924,7 +2924,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="6" t="s">
         <v>46</v>
       </c>
@@ -2933,7 +2933,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="6" t="s">
         <v>48</v>
       </c>
@@ -2942,16 +2942,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="7"/>
@@ -2960,7 +2960,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="6" t="s">
         <v>50</v>
       </c>
@@ -2969,7 +2969,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="6" t="s">
         <v>51</v>
       </c>
@@ -2978,7 +2978,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="7"/>
@@ -2987,7 +2987,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="6" t="s">
         <v>56</v>
       </c>
@@ -2996,7 +2996,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="7"/>
@@ -3005,7 +3005,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="6" t="s">
         <v>59</v>
       </c>
@@ -3014,7 +3014,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="6" t="s">
         <v>61</v>
       </c>
@@ -3023,7 +3023,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B43" s="7"/>
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="6" t="s">
         <v>78</v>
       </c>
@@ -3041,7 +3041,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="6" t="s">
         <v>76</v>
       </c>
@@ -3050,7 +3050,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="6" t="s">
         <v>79</v>
       </c>
@@ -3059,79 +3059,79 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>171</v>
+      <c r="A48" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="6" t="s">
+      <c r="C50" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+      <c r="B54" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B55" s="7"/>
@@ -3140,361 +3140,357 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24" t="s">
+      <c r="C58" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="22" t="s">
+    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
+      <c r="B59" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C59" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A59" s="26"/>
-      <c r="B59" s="22" t="s">
+    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
+      <c r="B60" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C60" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
-      <c r="B60" s="22" t="s">
+    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
+      <c r="B61" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C61" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
-      <c r="B61" s="22" t="s">
+    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C62" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="22" t="s">
+    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C63" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
-      <c r="B63" s="22" t="s">
+    <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="23"/>
+      <c r="B64" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C64" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="26"/>
-      <c r="B64" s="22" t="s">
+    <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A65" s="23"/>
+      <c r="B65" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C65" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
-      <c r="B65" s="22" t="s">
+    <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
+      <c r="B66" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C66" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
-      <c r="B66" s="22" t="s">
+    <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
+      <c r="B67" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C67" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A67" s="26"/>
-      <c r="B67" s="22" t="s">
+    <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
+      <c r="B68" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C68" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
-      <c r="B68" s="22" t="s">
+    <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C69" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
-      <c r="B69" s="22" t="s">
+    <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="24"/>
+      <c r="B70" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="22" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A71" s="18" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
-      <c r="B70" s="22" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A72" s="16"/>
+      <c r="B72" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A73" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A71" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A76" s="20"/>
+      <c r="B76" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A77" s="25"/>
+      <c r="B77" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="6" t="s">
+      <c r="C77" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A78" s="21"/>
+      <c r="B78" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
-      <c r="B78" s="6" t="s">
+    <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
-        <v>147</v>
+      <c r="A80" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
-        <v>149</v>
+      <c r="A81" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
-        <v>151</v>
+      <c r="A82" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A83" s="20"/>
+      <c r="B83" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
-      <c r="B83" s="6" t="s">
+    <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A84" s="21"/>
+      <c r="B84" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="6" t="s">
+    <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A86" s="12"/>
+      <c r="B86" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="6" t="s">
+    <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="17"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C88" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A90" s="20"/>
+      <c r="B90" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="14"/>
-      <c r="B90" s="6" t="s">
+    <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A91" s="21"/>
+      <c r="B91" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A91" s="16"/>
-      <c r="B91" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
     <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
     </row>
     <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
     </row>
     <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
     </row>
     <row r="95" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
     </row>
     <row r="96" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A58:A70"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A44:A47"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A16:A18"/>
@@ -3505,7 +3501,11 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A58:A70"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A90:A91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
